--- a/Old.xlsx
+++ b/Old.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Glocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5678DCAD-7846-4702-9F3C-0ADA9F23D567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A653CFB5-9AC7-43AA-9CBD-A7398F702330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5484" yWindow="1176" windowWidth="8400" windowHeight="8964" xr2:uid="{6ABD0D38-FA7C-4F95-B5A1-23AFED1241AC}"/>
+    <workbookView xWindow="13140" yWindow="120" windowWidth="9864" windowHeight="6432" xr2:uid="{6ABD0D38-FA7C-4F95-B5A1-23AFED1241AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
